--- a/WebPage/Common/RptTemplet/0510Report.xlsx
+++ b/WebPage/Common/RptTemplet/0510Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6680D-5891-4E3E-92A3-1E60ECD0C1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F85AF-F4DC-4F9C-9644-8342358941FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -423,6 +423,7 @@
     <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
     <col min="4" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/WebPage/Common/RptTemplet/0510Report.xlsx
+++ b/WebPage/Common/RptTemplet/0510Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeChen\Desktop\CSIP_Edit\Website\csip_cardflow_sit\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F85AF-F4DC-4F9C-9644-8342358941FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBA600-C8DE-4D27-BC6B-529293B092AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>身分證號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>備註說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名_羅馬拼音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,22 +415,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,18 +439,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
